--- a/ISA16.xlsx
+++ b/ISA16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ether-16-emu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3162A9-D243-471F-B2B9-0297A6AFF7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E587B-8C91-4852-A290-2DE3FAC46699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>БИНАРНЫЙ ВИД</t>
   </si>
@@ -127,6 +127,57 @@
   </si>
   <si>
     <t>AND</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>JFB</t>
+  </si>
+  <si>
+    <t>JFL</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>SHL</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] + R[В]</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] - R[В]</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] &amp; R[В]</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] | R[В]</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] ^ R[В]</t>
+  </si>
+  <si>
+    <t>R[A] = !R[Б]</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] &lt;&lt; R[В]</t>
+  </si>
+  <si>
+    <t>R[A] = R[Б] &gt;&gt; R[В]</t>
   </si>
 </sst>
 </file>
@@ -213,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +297,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,6 +748,9 @@
       <c r="R6" t="s">
         <v>21</v>
       </c>
+      <c r="S6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="T6" s="8">
         <v>5</v>
       </c>
@@ -702,6 +759,9 @@
       <c r="R7" t="s">
         <v>22</v>
       </c>
+      <c r="S7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="T7" s="8">
         <v>6</v>
       </c>
@@ -751,7 +811,9 @@
       <c r="R12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="T12" s="8">
         <v>11</v>
       </c>
@@ -760,7 +822,9 @@
       <c r="R13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="T13" s="8">
         <v>12</v>
       </c>
@@ -786,128 +850,184 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="6"/>
+      <c r="S22" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="T22" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+    </row>
+    <row r="23" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="6"/>
+      <c r="S23" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="T23" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+    </row>
+    <row r="24" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="6"/>
+      <c r="S24" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="T24" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+    </row>
+    <row r="25" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="T25" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+    </row>
+    <row r="26" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T26" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+    </row>
+    <row r="27" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="T27" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+    </row>
+    <row r="28" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S28" s="6"/>
+      <c r="S28" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="T28" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+    </row>
+    <row r="29" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S29" s="6"/>
+      <c r="S29" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="T29" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+    </row>
+    <row r="30" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R30" s="7"/>
       <c r="S30" s="6"/>
       <c r="T30" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R31" s="7"/>
       <c r="S31" s="6"/>
       <c r="T31" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="18:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R32" s="7"/>
       <c r="S32" s="6"/>
       <c r="T32" s="8">
@@ -922,7 +1042,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="U25:W25"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:P1"/>
